--- a/GameDesign/HMtable/FenceTable.xlsx
+++ b/GameDesign/HMtable/FenceTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82104\OneDrive\바탕 화면\용사관리사\기획\테이블\테이블\HMtable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82104\OneDrive\바탕 화면\github\Heros-Manager\GameDesign\HMtable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEE8F07E-3D1A-4A3B-B5CC-CFE0F1CB2463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC12BB9B-142D-4DB9-B1FE-6FB31E134DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3552" yWindow="720" windowWidth="16332" windowHeight="8964" xr2:uid="{E48B79EC-0C8E-4E5B-B21B-91534E96F507}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E48B79EC-0C8E-4E5B-B21B-91534E96F507}"/>
   </bookViews>
   <sheets>
     <sheet name="FenceTable" sheetId="1" r:id="rId1"/>
@@ -138,10 +138,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>strint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">울타리 고유 코드 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -167,6 +163,10 @@
   </si>
   <si>
     <t>강화 소모 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -620,7 +620,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -646,10 +646,10 @@
         <v>27</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F1" t="s">
         <v>27</v>
@@ -660,25 +660,25 @@
     </row>
     <row r="2" spans="1:7" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="2">
-        <v>40</v>
+        <v>0.4</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>24</v>
@@ -738,7 +738,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="2">
-        <v>20</v>
+        <v>0.2</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>24</v>
@@ -761,7 +761,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="2">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>24</v>
@@ -784,7 +784,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="2">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>24</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="2">
-        <v>40</v>
+        <v>0.4</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>24</v>
@@ -853,7 +853,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="2">
-        <v>20</v>
+        <v>0.2</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>24</v>
@@ -876,7 +876,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="2">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>24</v>
@@ -899,7 +899,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="2">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>24</v>
@@ -945,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="2">
-        <v>40</v>
+        <v>0.4</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>24</v>
@@ -968,7 +968,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="2">
-        <v>20</v>
+        <v>0.2</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>24</v>
@@ -991,7 +991,7 @@
         <v>2</v>
       </c>
       <c r="D16" s="2">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>24</v>
@@ -1014,7 +1014,7 @@
         <v>3</v>
       </c>
       <c r="D17" s="2">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>24</v>
